--- a/result.xlsx
+++ b/result.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Кофе" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -37,18 +37,18 @@
     <t>Кофе Monarch Original растворимый, 500г</t>
   </si>
   <si>
+    <t>Кофе Нескафе Голд растворимый сублимированный с добавлением натурального жареного молотого кофе, 900г</t>
+  </si>
+  <si>
     <t>Кофе Bushido Original растворимый, 100г</t>
   </si>
   <si>
+    <t>Кофе Bushido Kodo растворимый, 95г</t>
+  </si>
+  <si>
     <t>Кофе Нескафе Классик растворимый, 900г</t>
   </si>
   <si>
-    <t>Кофе Нескафе Голд растворимый сублимированный с добавлением натурального жареного молотого кофе, 900г</t>
-  </si>
-  <si>
-    <t>Кофе Bushido Kodo растворимый, 95г</t>
-  </si>
-  <si>
     <t>Кофе Нескафе Голд растворимый сублимированный, 500г</t>
   </si>
   <si>
@@ -64,16 +64,22 @@
     <t>Кофе Egoiste Special растворимый сублимированный с молотым, 100г</t>
   </si>
   <si>
+    <t>Кофе Ambassador Platinum растворимый, 190г</t>
+  </si>
+  <si>
     <t>Кофе Carte Noire Original растворимый сублимированный, 190г</t>
   </si>
   <si>
     <t>Кофе Carte Noire Instinct растворимый, 95г</t>
   </si>
   <si>
+    <t>Кофе Monarch Milligrano растворимый с молотым, 200г</t>
+  </si>
+  <si>
     <t>Кофе Egoiste Noir растворимый сублимированный, 100г</t>
   </si>
   <si>
-    <t>Кофе Monarch Milligrano растворимый с молотым, 200г</t>
+    <t>Кофе Egoiste Double Espresso растворимый, 70г</t>
   </si>
   <si>
     <t>Кофе Нескафе Голд растворимый, 190г</t>
@@ -94,6 +100,9 @@
     <t>Напиток кофейный Нескафе Классик 3в1 20 пакетиков, 290г</t>
   </si>
   <si>
+    <t>Кофе Egoiste Noir растворимый, 70г</t>
+  </si>
+  <si>
     <t>aro Кофе растворимый сублимированный, 900г</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>Кофе Torabika Creamy Latte растворимый (30г x 20шт), 600г</t>
   </si>
   <si>
+    <t>Кофе Jardin Colombia Medelin растворимый сублимированный, 150г</t>
+  </si>
+  <si>
     <t>Кофе Monarch Milligrano растворимый с молотым, 90г</t>
   </si>
   <si>
@@ -163,18 +175,21 @@
     <t>Кофе Jardin Guatemala Atitlan натуральный растворимый, 95г</t>
   </si>
   <si>
+    <t>Кофе Ambassador Platinum растворимый, 95г</t>
+  </si>
+  <si>
+    <t>Кофе Carte Noire Privilege сублимированный, 95г</t>
+  </si>
+  <si>
     <t>Кофе Jardin Guatemala Atitlan растворимый, 150г</t>
   </si>
   <si>
+    <t>Кофе Fresco Arabica Solo растворимый, 100г</t>
+  </si>
+  <si>
     <t>Кофе Egoiste Platinum, 100г</t>
   </si>
   <si>
-    <t>Кофе Carte Noire Privilege сублимированный, 95г</t>
-  </si>
-  <si>
-    <t>Кофе Fresco Arabica Solo растворимый, 100г</t>
-  </si>
-  <si>
     <t>Кофе Egoiste Double Espresso, 100г</t>
   </si>
   <si>
@@ -187,6 +202,9 @@
     <t>Кофе Нескафе Голд растворимый, 130г</t>
   </si>
   <si>
+    <t>Кофе Monarch Original растворимый (1.8г x 30шт), 54г</t>
+  </si>
+  <si>
     <t>Кофе Нескафе Классик растворимый, 500г</t>
   </si>
   <si>
@@ -196,24 +214,27 @@
     <t>Кофе Bushido Black Katana растворимый, 100г</t>
   </si>
   <si>
+    <t>Кофе Fresco Arabica Blend натуральный растворимый, 100г</t>
+  </si>
+  <si>
+    <t>Кофе Bushido Light Katana растворимый, 100г</t>
+  </si>
+  <si>
+    <t>Кофе Жокей Триумф растворимый сублимированный, 150г</t>
+  </si>
+  <si>
+    <t>Кофе Jardin Gold растворимый, 95г</t>
+  </si>
+  <si>
+    <t>Кофе Monarch карамель растворимый, 95г</t>
+  </si>
+  <si>
+    <t>Кофе Carte Noire Original растворимый сублимированный, 150г</t>
+  </si>
+  <si>
     <t>Напиток кофейный Monarch Classic 3в1 растворимый (13.5г x 50шт), 675г</t>
   </si>
   <si>
-    <t>Кофе Fresco Arabica Blend натуральный растворимый, 100г</t>
-  </si>
-  <si>
-    <t>Кофе Bushido Light Katana растворимый, 100г</t>
-  </si>
-  <si>
-    <t>Кофе Жокей Триумф растворимый сублимированный, 150г</t>
-  </si>
-  <si>
-    <t>Кофе Carte Noire Original растворимый сублимированный, 150г</t>
-  </si>
-  <si>
-    <t>Кофе Jardin Gold растворимый, 95г</t>
-  </si>
-  <si>
     <t>Кофе Нескафе Голд растворимый, 95г</t>
   </si>
   <si>
@@ -229,16 +250,22 @@
     <t>Кофе Monarch Brazilian Selection растворимый, 180г</t>
   </si>
   <si>
+    <t>Кофе Jardin Колумбия Меделлин растворимый, 75г</t>
+  </si>
+  <si>
     <t>Кофе Жокей Триумф растворимый, 280г</t>
   </si>
   <si>
+    <t>Кофе Kaffa Fresco Narino растворимый сублимированный, 100г</t>
+  </si>
+  <si>
+    <t>Кофе Carte Noire Original растворимый сублимированный, 75г</t>
+  </si>
+  <si>
     <t>Кофе Jardin Gold растворимый, 240г</t>
   </si>
   <si>
-    <t>Кофе Kaffa Fresco Narino растворимый сублимированный, 100г</t>
-  </si>
-  <si>
-    <t>Кофе Carte Noire Original растворимый сублимированный, 75г</t>
+    <t>Напиток кофейный Carte Noire Cappuccino растворимый 20 пакетиков, 300г</t>
   </si>
   <si>
     <t>Кофе Нескафе Gold Crema растворимый, 170г</t>
@@ -292,6 +319,12 @@
     <t>Кофейный напиток Kopiko 3 в 1 Classic 20шт х 20г, 400г</t>
   </si>
   <si>
+    <t>Кофе Monarch Crema растворимый, 95г</t>
+  </si>
+  <si>
+    <t>Кофе Monarch Original растворимый, 130г</t>
+  </si>
+  <si>
     <t>Кофе Jardin Guatemala Atitlan растворимый, 190г</t>
   </si>
   <si>
@@ -316,6 +349,12 @@
     <t>Кофе Нескафе Классик растворимый, 190г</t>
   </si>
   <si>
+    <t>Напиток кофейный Carte Noire Vanilla latte растворимый 20 пакетиков, 320г</t>
+  </si>
+  <si>
+    <t>Кофе MacCoffee Gold растворимый, 100г</t>
+  </si>
+  <si>
     <t>Кофе Monarch Original растворимый, 47.5г</t>
   </si>
   <si>
@@ -355,120 +394,81 @@
     <t>Кофе Нескафе Голд растворимый, 190г x 6 шт</t>
   </si>
   <si>
+    <t>Напиток кофейный MacCoffee Latte карамель порционный (22г x 20шт), 440г</t>
+  </si>
+  <si>
     <t>Кофе Нескафе Голд растворимый сублимированный с добавлением натурального жареного молотого кофе, 750г x 6 шт</t>
   </si>
   <si>
     <t>Кофе Monarch Original растворимый, 75г</t>
   </si>
   <si>
-    <t>Кофе Ambassador Platinum растворимый, 190г</t>
-  </si>
-  <si>
-    <t>Кофе Egoiste Double Espresso растворимый, 70г</t>
-  </si>
-  <si>
-    <t>Кофе Egoiste Noir растворимый, 70г</t>
-  </si>
-  <si>
-    <t>Кофе Jardin Colombia Medelin растворимый сублимированный, 150г</t>
-  </si>
-  <si>
-    <t>Кофе Ambassador Platinum растворимый, 95г</t>
-  </si>
-  <si>
-    <t>Кофе Monarch карамель растворимый, 95г</t>
-  </si>
-  <si>
-    <t>Кофе Jardin Колумбия Меделлин растворимый, 75г</t>
-  </si>
-  <si>
-    <t>Кофе Monarch Original растворимый, 130г</t>
-  </si>
-  <si>
-    <t>Кофе Monarch Crema растворимый, 95г</t>
-  </si>
-  <si>
     <t>Кофе MacCoffee Arabica растворимый, 100г</t>
   </si>
   <si>
+    <t>Напиток кофейный MacCoffee Capuccino Dolce Vita порционный (24г x 20шт), 480г</t>
+  </si>
+  <si>
     <t>Напиток кофейный MacCoffee Strong 3в1 порционный (18г x 50шт), 900г</t>
   </si>
   <si>
+    <t>Напиток кофейный Monarch Strong 3в1 растворимый (13г x 50шт), 650г</t>
+  </si>
+  <si>
     <t>Напиток кофейный MacCoffee со сгущенным молоком 3в1 порционный (20г x 50шт), 1кг</t>
   </si>
   <si>
+    <t>Напиток кофейный MacCoffee Cappuccino Di Torino 3в1 растворимый, 25.5г x 20 шт</t>
+  </si>
+  <si>
     <t>Кофе Жокей триумф растворимый (2г x 100шт), 200г</t>
   </si>
   <si>
+    <t>Кофе Жокей триумф растворимый, 450г</t>
+  </si>
+  <si>
+    <t>Набор подарочный Monarch Original Кофе+чашка растворимый, 95г</t>
+  </si>
+  <si>
+    <t>Кофе Monarch Miligrano растворимый с молотым, 70г</t>
+  </si>
+  <si>
     <t>Кофе Monarch Лесной орех растворимый, 95г</t>
   </si>
   <si>
-    <t>Кофе Monarch Original растворимый (1.8г x 30шт), 54г</t>
-  </si>
-  <si>
-    <t>Кофе Жокей триумф растворимый, 450г</t>
-  </si>
-  <si>
-    <t>Напиток кофейный Carte Noire Cappuccino растворимый 20 пакетиков, 300г</t>
-  </si>
-  <si>
-    <t>Напиток кофейный Carte Noire Vanilla latte растворимый 20 пакетиков, 320г</t>
-  </si>
-  <si>
-    <t>Кофе MacCoffee Gold растворимый, 100г</t>
-  </si>
-  <si>
-    <t>Напиток кофейный MacCoffee Capuccino Dolce Vita порционный (24г x 20шт), 480г</t>
+    <t>Кофе Carte Noire растворимый сублимированный (1.8г x 30шт), 54г</t>
+  </si>
+  <si>
+    <t>Кофе Нескафе Крема растворимый, 95г x 12 шт</t>
+  </si>
+  <si>
+    <t>Кофе Нескафе Голд растворимый сублимированный, 500г х 12 шт</t>
+  </si>
+  <si>
+    <t>Кофе Egoiste Noir растворимый сублимированный, 100г х 12 шт</t>
+  </si>
+  <si>
+    <t>Кофе Carte Noire Original растворимый сублимированный, 190г x 6 шт</t>
   </si>
   <si>
     <t>Кофе Нескафе Голд Бариста растворимый, 85г x 6 шт</t>
   </si>
   <si>
-    <t>Кофе Monarch Miligrano растворимый с молотым, 70г</t>
-  </si>
-  <si>
-    <t>Кофе Нескафе Крема растворимый, 95г x 12 шт</t>
-  </si>
-  <si>
-    <t>Кофе Egoiste Noir растворимый сублимированный, 100г х 12 шт</t>
-  </si>
-  <si>
-    <t>Кофе Carte Noire растворимый сублимированный (1.8г x 30шт), 54г</t>
-  </si>
-  <si>
-    <t>Напиток кофейный Monarch Strong 3в1 растворимый (13г x 50шт), 650г</t>
-  </si>
-  <si>
-    <t>Кофе Нескафе Голд растворимый сублимированный, 500г х 12 шт</t>
-  </si>
-  <si>
-    <t>Напиток кофейный MacCoffee Cappuccino Di Torino 3в1 растворимый, 25.5г x 20 шт</t>
-  </si>
-  <si>
-    <t>Напиток кофейный MacCoffee Latte карамель порционный (22г x 20шт), 440г</t>
-  </si>
-  <si>
-    <t>Кофе Carte Noire Original растворимый сублимированный, 190г x 6 шт</t>
-  </si>
-  <si>
-    <t>Набор подарочный Monarch Original Кофе+чашка растворимый, 95г</t>
-  </si>
-  <si>
     <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-500g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/kofe-nescafe-gold-rastvorimiy-sublimirovanniy-s-dobavleniem-naturalnogo-zharenogo-molotogo-kofe-900g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/bushido-sublimirovannyj-original-100g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/bushido-v-kristallah-kodo-95g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/900g-nescafe-classic</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/kofe-nescafe-gold-rastvorimiy-sublimirovanniy-s-dobavleniem-naturalnogo-zharenogo-molotogo-kofe-900g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/bushido-v-kristallah-kodo-95g</t>
-  </si>
-  <si>
     <t>https://online.metro-cc.ru/products/nescafe-sublimirovannyj-gold-500g</t>
   </si>
   <si>
@@ -484,16 +484,22 @@
     <t>https://online.metro-cc.ru/products/egoiste-sublimirovannnyj-s-molotym-special-100g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/ambassador-platinum-190g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/carte-noire-sublimirovannyj-original-190g</t>
   </si>
   <si>
     <t>https://online.metro-cc.ru/products/art-260443</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/kofe-monarch-milligrano-rastvorimyy-s-molotym-200g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/egoiste-sublimirovannyj-noir-100g</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/kofe-monarch-milligrano-rastvorimyy-s-molotym-200g</t>
+    <t>https://online.metro-cc.ru/products/egoiste-double-espresso-70g</t>
   </si>
   <si>
     <t>https://online.metro-cc.ru/products/nescafe-gold-190g</t>
@@ -514,6 +520,9 @@
     <t>https://online.metro-cc.ru/products/20x145g-kofejnyj-napitok-nescafe-3v1-klassik</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/egoiste-noir-70g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/aro-sublimirovannyj-900g</t>
   </si>
   <si>
@@ -550,6 +559,9 @@
     <t>https://online.metro-cc.ru/products/20shtx30g-kofe-torabica-creamy-latte-rastvorimyy</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/jardin-sublimirovannyj-colombia-medelin-150g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/kofe-monarch-milligrano-rastvorimyy-s-molotym-90g</t>
   </si>
   <si>
@@ -586,18 +598,21 @@
     <t>https://online.metro-cc.ru/products/jardin-guatemala-atitlan-naturalnyj-95-g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/95g-kofe-ambassador-platinum-rastvorimyy-stb</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/carte-noire-privilege-sublimirovannyj-95-g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/jardin-guatemala-atitlan-150g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/fresco-arabika-100g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/egoiste-platinum-100-g</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/carte-noire-privilege-sublimirovannyj-95-g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/fresco-arabika-100g</t>
-  </si>
-  <si>
     <t>https://online.metro-cc.ru/products/egoiste-double-espresso-100g</t>
   </si>
   <si>
@@ -610,6 +625,9 @@
     <t>https://online.metro-cc.ru/products/nescafe-gold-rastvorimyj-130g-paket</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-18g-x-30sht-54g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/nescafe-classic-paket-500g</t>
   </si>
   <si>
@@ -619,24 +637,27 @@
     <t>https://online.metro-cc.ru/products/bushido-sublimirovannyj-black-katana-100g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/fresco-naturalnyj-arabica-blend-100g</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/100g-kofe-bushido-light-katana-rastvorimyy</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/zhokej-sublimirovannyj-triumf-150g</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/95g-kofe-jardin-gold-rastvorimyy-stb</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/95g-kofe-monarch-karamel-rastvorimyy-st</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/carte-noire-sublimirovannyj-original-150g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/napitok-kofeynyy-monarch-classic-3v1-rastvorimyy-135g-x-50sht-675g</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/fresco-naturalnyj-arabica-blend-100g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/100g-kofe-bushido-light-katana-rastvorimyy</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/zhokej-sublimirovannyj-triumf-150g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/carte-noire-sublimirovannyj-original-150g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/95g-kofe-jardin-gold-rastvorimyy-stb</t>
-  </si>
-  <si>
     <t>https://online.metro-cc.ru/products/nescafe-gold-steklo-95g-415027</t>
   </si>
   <si>
@@ -652,16 +673,22 @@
     <t>https://online.metro-cc.ru/products/kofe-monarch-brazilian-selection-rastvorimyy-180g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/75g-kofe-jardin-kolumbiya-medellin-rastvorimyy</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/280g-kofe-zhokey-triumf-rastvorimyy</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/kofe-kaffa-fresco-narino-rastvorimyy-sublimirovannyy-100g</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/art-426443</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/240g-kofe-jardin-gold-rastvorimyy</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/kofe-kaffa-fresco-narino-rastvorimyy-sublimirovannyy-100g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/art-426443</t>
+    <t>https://online.metro-cc.ru/products/20shth15g-nap-kofeynyy-carte-noire-cappuccino-rastv-ports</t>
   </si>
   <si>
     <t>https://online.metro-cc.ru/products/kofe-nescafe-gold-crema-rastvorimyy-170g</t>
@@ -715,6 +742,12 @@
     <t>https://online.metro-cc.ru/products/kofeynyy-napitok-kopiko-3-v-1-classic-20sht-h-20g-400g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/kofe-monarch-crema-rastvorimyy-95g</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-130g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/190g-kofe-jardin-guatemala-atitlan-rastvorimyy-stb</t>
   </si>
   <si>
@@ -739,9 +772,15 @@
     <t>https://online.metro-cc.ru/products/190g-kofe-nescafe-classic-rastvorimyy-stekl-banka</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/20shth16g-nap-kofeynyy-carte-noire-vanilla-latte-rastv-ports</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/nescafe-classic-paket-190g</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/100g-kofe-maccoffee-gold-rastvorimyy-stb</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/475g-kofe-monarch-original-rastvorimyy-st</t>
   </si>
   <si>
@@ -781,117 +820,81 @@
     <t>https://online.metro-cc.ru/products/nescafe-sublimirovannyj-gold-190g-263145</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/20shth22g-kofe-maccoffee-latte-karamel-portsionnyy</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/nescafe-gold-rastvorimyj-sublimirovannyj-750g</t>
   </si>
   <si>
     <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-75g</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/ambassador-platinum-190g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/egoiste-double-espresso-70g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/egoiste-noir-70g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/jardin-sublimirovannyj-colombia-medelin-150g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/95g-kofe-ambassador-platinum-rastvorimyy-stb</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/95g-kofe-monarch-karamel-rastvorimyy-st</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/75g-kofe-jardin-kolumbiya-medellin-rastvorimyy</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-130g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/kofe-monarch-crema-rastvorimyy-95g</t>
-  </si>
-  <si>
     <t>https://online.metro-cc.ru/products/100g-kofe-maccoffee-arabica-rastvorimyy-stb</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/20shth24g-kofe-maccoffee-cappuccino-dolce-vita-portsionnyy</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/50shth18g-napitok-kofeynyy-maccoffee-3v1-strong-portsionnyy</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/napitok-kofeynyy-monarch-strong-3v1-rastvorimyy-13g-x-50sht-650g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/50shth20g-napitok-kofeynyy-maccoffee-3v1-sgusch-mol-portsionnyy</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/255g-nap-kofeynyy-maccoffee-cappuccino-di-torino-3v1-rastv-254710</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/100shth2g-kofe-zhokey-triumf-rastvorimyy</t>
   </si>
   <si>
+    <t>https://online.metro-cc.ru/products/450g-kofe-zhokey-triumf-rastvorimyy</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/95g-pn-kofechashka-monarch-original-rastvorimyy</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/kofe-monarch-miligrano-rastvorimyy-s-molotym-70g</t>
+  </si>
+  <si>
     <t>https://online.metro-cc.ru/products/95g-kofe-monarch-lesnoy-oreh-rastvorimyy-st</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/kofe-monarch-original-rastvorimyy-18g-x-30sht-54g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/450g-kofe-zhokey-triumf-rastvorimyy</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/20shth15g-nap-kofeynyy-carte-noire-cappuccino-rastv-ports</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/20shth16g-nap-kofeynyy-carte-noire-vanilla-latte-rastv-ports</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/100g-kofe-maccoffee-gold-rastvorimyy-stb</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/20shth24g-kofe-maccoffee-cappuccino-dolce-vita-portsionnyy</t>
+    <t>https://online.metro-cc.ru/products/30shtx18g-kofe-carte-noire-rastvorimyy-sublimirovannyy</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/nescafe-classic-crema-95-g-</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/nescafe-rastvorimyj-sublimirovannyj-gold-500g</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/carte-noire-egoist-rastvorimyj-sublimirovannyj-100-g</t>
+  </si>
+  <si>
+    <t>https://online.metro-cc.ru/products/carte-noire-steklo-190g</t>
   </si>
   <si>
     <t>https://online.metro-cc.ru/products/nescafe-gold-molotyj-v-rastvorimom-barista-85g</t>
   </si>
   <si>
-    <t>https://online.metro-cc.ru/products/kofe-monarch-miligrano-rastvorimyy-s-molotym-70g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/nescafe-classic-crema-95-g-</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/carte-noire-egoist-rastvorimyj-sublimirovannyj-100-g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/30shtx18g-kofe-carte-noire-rastvorimyy-sublimirovannyy</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/napitok-kofeynyy-monarch-strong-3v1-rastvorimyy-13g-x-50sht-650g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/nescafe-rastvorimyj-sublimirovannyj-gold-500g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/255g-nap-kofeynyy-maccoffee-cappuccino-di-torino-3v1-rastv-254710</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/20shth22g-kofe-maccoffee-latte-karamel-portsionnyy</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/carte-noire-steklo-190g</t>
-  </si>
-  <si>
-    <t>https://online.metro-cc.ru/products/95g-pn-kofechashka-monarch-original-rastvorimyy</t>
-  </si>
-  <si>
     <t>MONARCH</t>
   </si>
   <si>
+    <t>НЕСКАФЕ</t>
+  </si>
+  <si>
     <t>BUSHIDO</t>
   </si>
   <si>
-    <t>НЕСКАФЕ</t>
-  </si>
-  <si>
     <t>EGOISTE</t>
   </si>
   <si>
+    <t>AMBASSADOR</t>
+  </si>
+  <si>
     <t>CARTENOIRE</t>
   </si>
   <si>
@@ -923,9 +926,6 @@
   </si>
   <si>
     <t>MACCOFFEE</t>
-  </si>
-  <si>
-    <t>AMBASSADOR</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1333,7 @@
         <v>146</v>
       </c>
       <c r="D2">
-        <v>1809</v>
+        <v>1799</v>
       </c>
       <c r="E2">
         <v>1399</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>407889</v>
+        <v>122743</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1353,10 +1353,7 @@
         <v>147</v>
       </c>
       <c r="D3">
-        <v>1099</v>
-      </c>
-      <c r="E3">
-        <v>699</v>
+        <v>2389</v>
       </c>
       <c r="F3" t="s">
         <v>289</v>
@@ -1364,7 +1361,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>123742</v>
+        <v>407889</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1373,10 +1370,10 @@
         <v>148</v>
       </c>
       <c r="D4">
-        <v>2189</v>
+        <v>1099</v>
       </c>
       <c r="E4">
-        <v>1299</v>
+        <v>699</v>
       </c>
       <c r="F4" t="s">
         <v>290</v>
@@ -1384,7 +1381,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>122743</v>
+        <v>598958</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1393,7 +1390,10 @@
         <v>149</v>
       </c>
       <c r="D5">
-        <v>2389</v>
+        <v>999</v>
+      </c>
+      <c r="E5">
+        <v>749</v>
       </c>
       <c r="F5" t="s">
         <v>290</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>598958</v>
+        <v>123742</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1410,10 +1410,10 @@
         <v>150</v>
       </c>
       <c r="D6">
-        <v>999</v>
+        <v>2189</v>
       </c>
       <c r="E6">
-        <v>749</v>
+        <v>1299</v>
       </c>
       <c r="F6" t="s">
         <v>289</v>
@@ -1436,7 +1436,7 @@
         <v>1199</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1496,7 +1496,7 @@
         <v>1869</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1521,7 +1521,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>75654</v>
+        <v>463833</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -1530,10 +1530,10 @@
         <v>156</v>
       </c>
       <c r="D12">
-        <v>1189</v>
+        <v>729</v>
       </c>
       <c r="E12">
-        <v>999</v>
+        <v>499</v>
       </c>
       <c r="F12" t="s">
         <v>292</v>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>260443</v>
+        <v>75654</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1550,18 +1550,18 @@
         <v>157</v>
       </c>
       <c r="D13">
-        <v>849</v>
+        <v>1189</v>
       </c>
       <c r="E13">
-        <v>479</v>
+        <v>999</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>598959</v>
+        <v>260443</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1570,13 +1570,13 @@
         <v>158</v>
       </c>
       <c r="D14">
-        <v>719</v>
+        <v>849</v>
       </c>
       <c r="E14">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="F14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1590,9 +1590,6 @@
         <v>159</v>
       </c>
       <c r="D15">
-        <v>809</v>
-      </c>
-      <c r="E15">
         <v>599</v>
       </c>
       <c r="F15" t="s">
@@ -1601,7 +1598,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>433965</v>
+        <v>598959</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1610,18 +1607,18 @@
         <v>160</v>
       </c>
       <c r="D16">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="E16">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="F16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>259882</v>
+        <v>130173</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1630,18 +1627,18 @@
         <v>161</v>
       </c>
       <c r="D17">
-        <v>2519</v>
+        <v>539</v>
       </c>
       <c r="E17">
-        <v>1799</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>133726</v>
+        <v>433965</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1650,18 +1647,18 @@
         <v>162</v>
       </c>
       <c r="D18">
-        <v>319</v>
+        <v>649</v>
       </c>
       <c r="E18">
-        <v>269</v>
+        <v>489</v>
       </c>
       <c r="F18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>227972</v>
+        <v>259882</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1670,18 +1667,18 @@
         <v>163</v>
       </c>
       <c r="D19">
-        <v>699</v>
+        <v>2519</v>
       </c>
       <c r="E19">
-        <v>509</v>
+        <v>1799</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>230305</v>
+        <v>133726</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1690,18 +1687,18 @@
         <v>164</v>
       </c>
       <c r="D20">
-        <v>1069</v>
+        <v>319</v>
       </c>
       <c r="E20">
-        <v>849</v>
+        <v>269</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>133724</v>
+        <v>227972</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1710,18 +1707,18 @@
         <v>165</v>
       </c>
       <c r="D21">
-        <v>319</v>
+        <v>699</v>
       </c>
       <c r="E21">
-        <v>269</v>
+        <v>509</v>
       </c>
       <c r="F21" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>632120</v>
+        <v>230305</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1730,98 +1727,98 @@
         <v>166</v>
       </c>
       <c r="D22">
-        <v>1689</v>
+        <v>1069</v>
       </c>
       <c r="E22">
-        <v>1729</v>
+        <v>849</v>
       </c>
       <c r="F22" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>8415</v>
+        <v>133724</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D23">
-        <v>599</v>
+        <v>319</v>
       </c>
       <c r="E23">
-        <v>519</v>
+        <v>269</v>
       </c>
       <c r="F23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>226399</v>
+        <v>59006</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D24">
-        <v>519</v>
+        <v>449</v>
       </c>
       <c r="E24">
-        <v>469</v>
+        <v>309</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>224709</v>
+        <v>632120</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D25">
-        <v>379</v>
+        <v>1429</v>
       </c>
       <c r="E25">
-        <v>359</v>
+        <v>1469</v>
       </c>
       <c r="F25" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>469362</v>
+        <v>8415</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D26">
-        <v>319</v>
+        <v>599</v>
       </c>
       <c r="E26">
-        <v>269</v>
+        <v>519</v>
       </c>
       <c r="F26" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>228295</v>
+        <v>226399</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
@@ -1830,18 +1827,18 @@
         <v>171</v>
       </c>
       <c r="D27">
-        <v>1049</v>
+        <v>519</v>
       </c>
       <c r="E27">
-        <v>699</v>
+        <v>469</v>
       </c>
       <c r="F27" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>469367</v>
+        <v>224709</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -1850,18 +1847,18 @@
         <v>172</v>
       </c>
       <c r="D28">
-        <v>319</v>
+        <v>379</v>
       </c>
       <c r="E28">
-        <v>269</v>
+        <v>359</v>
       </c>
       <c r="F28" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>218639</v>
+        <v>469362</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -1870,18 +1867,18 @@
         <v>173</v>
       </c>
       <c r="D29">
-        <v>519</v>
+        <v>319</v>
       </c>
       <c r="E29">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>232417</v>
+        <v>228295</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -1890,18 +1887,18 @@
         <v>174</v>
       </c>
       <c r="D30">
-        <v>1019</v>
+        <v>1049</v>
       </c>
       <c r="E30">
-        <v>599</v>
+        <v>699</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>133725</v>
+        <v>469367</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -1916,12 +1913,12 @@
         <v>269</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>224739</v>
+        <v>218639</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -1930,18 +1927,18 @@
         <v>176</v>
       </c>
       <c r="D32">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="E32">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>231689</v>
+        <v>232417</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
@@ -1950,10 +1947,10 @@
         <v>177</v>
       </c>
       <c r="D33">
-        <v>389</v>
+        <v>1019</v>
       </c>
       <c r="E33">
-        <v>339</v>
+        <v>599</v>
       </c>
       <c r="F33" t="s">
         <v>297</v>
@@ -1961,7 +1958,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>230304</v>
+        <v>133725</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
@@ -1970,18 +1967,18 @@
         <v>178</v>
       </c>
       <c r="D34">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="E34">
-        <v>339</v>
+        <v>269</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>226397</v>
+        <v>224739</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
@@ -1990,18 +1987,18 @@
         <v>179</v>
       </c>
       <c r="D35">
-        <v>399</v>
+        <v>439</v>
       </c>
       <c r="E35">
-        <v>309</v>
+        <v>379</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>249902</v>
+        <v>231689</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
@@ -2010,18 +2007,18 @@
         <v>180</v>
       </c>
       <c r="D36">
-        <v>1529</v>
+        <v>399</v>
       </c>
       <c r="E36">
-        <v>999</v>
+        <v>339</v>
       </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>227971</v>
+        <v>459849</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -2030,18 +2027,18 @@
         <v>181</v>
       </c>
       <c r="D37">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="E37">
-        <v>509</v>
+        <v>369</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>232899</v>
+        <v>230304</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
@@ -2050,18 +2047,18 @@
         <v>182</v>
       </c>
       <c r="D38">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="E38">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>231688</v>
+        <v>226397</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
@@ -2070,18 +2067,18 @@
         <v>183</v>
       </c>
       <c r="D39">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="E39">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="F39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>590985</v>
+        <v>249902</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -2090,18 +2087,18 @@
         <v>184</v>
       </c>
       <c r="D40">
-        <v>1249</v>
+        <v>1529</v>
       </c>
       <c r="E40">
-        <v>749</v>
+        <v>999</v>
       </c>
       <c r="F40" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>534998</v>
+        <v>227971</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
@@ -2110,15 +2107,18 @@
         <v>185</v>
       </c>
       <c r="D41">
-        <v>349</v>
+        <v>699</v>
+      </c>
+      <c r="E41">
+        <v>509</v>
       </c>
       <c r="F41" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>551849</v>
+        <v>232899</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -2127,18 +2127,18 @@
         <v>186</v>
       </c>
       <c r="D42">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="E42">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="F42" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>228235</v>
+        <v>231688</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
@@ -2147,18 +2147,18 @@
         <v>187</v>
       </c>
       <c r="D43">
-        <v>809</v>
+        <v>379</v>
       </c>
       <c r="E43">
-        <v>499</v>
+        <v>339</v>
       </c>
       <c r="F43" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>243439</v>
+        <v>590985</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
@@ -2167,18 +2167,18 @@
         <v>188</v>
       </c>
       <c r="D44">
-        <v>1819</v>
+        <v>1249</v>
       </c>
       <c r="E44">
-        <v>1349</v>
+        <v>749</v>
       </c>
       <c r="F44" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>469363</v>
+        <v>534998</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
@@ -2187,18 +2187,15 @@
         <v>189</v>
       </c>
       <c r="D45">
-        <v>319</v>
-      </c>
-      <c r="E45">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>459854</v>
+        <v>551849</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
@@ -2207,18 +2204,18 @@
         <v>190</v>
       </c>
       <c r="D46">
-        <v>669</v>
+        <v>329</v>
       </c>
       <c r="E46">
-        <v>369</v>
+        <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>528357</v>
+        <v>228235</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
@@ -2227,18 +2224,18 @@
         <v>191</v>
       </c>
       <c r="D47">
-        <v>1159</v>
+        <v>809</v>
       </c>
       <c r="E47">
-        <v>799</v>
+        <v>499</v>
       </c>
       <c r="F47" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>666412</v>
+        <v>243439</v>
       </c>
       <c r="B48" t="s">
         <v>51</v>
@@ -2247,18 +2244,18 @@
         <v>192</v>
       </c>
       <c r="D48">
-        <v>859</v>
+        <v>1739</v>
       </c>
       <c r="E48">
-        <v>479</v>
+        <v>1349</v>
       </c>
       <c r="F48" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>439335</v>
+        <v>469363</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
@@ -2267,18 +2264,18 @@
         <v>193</v>
       </c>
       <c r="D49">
-        <v>519</v>
+        <v>319</v>
       </c>
       <c r="E49">
-        <v>299</v>
+        <v>269</v>
       </c>
       <c r="F49" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>72873</v>
+        <v>256635</v>
       </c>
       <c r="B50" t="s">
         <v>53</v>
@@ -2287,18 +2284,18 @@
         <v>194</v>
       </c>
       <c r="D50">
-        <v>699</v>
+        <v>459</v>
       </c>
       <c r="E50">
-        <v>459</v>
+        <v>279</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>599071</v>
+        <v>666412</v>
       </c>
       <c r="B51" t="s">
         <v>54</v>
@@ -2307,18 +2304,18 @@
         <v>195</v>
       </c>
       <c r="D51">
-        <v>669</v>
+        <v>849</v>
       </c>
       <c r="E51">
-        <v>369</v>
+        <v>479</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>249903</v>
+        <v>459854</v>
       </c>
       <c r="B52" t="s">
         <v>55</v>
@@ -2327,18 +2324,18 @@
         <v>196</v>
       </c>
       <c r="D52">
-        <v>1529</v>
+        <v>669</v>
       </c>
       <c r="E52">
-        <v>999</v>
+        <v>369</v>
       </c>
       <c r="F52" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>33501</v>
+        <v>439335</v>
       </c>
       <c r="B53" t="s">
         <v>56</v>
@@ -2350,15 +2347,15 @@
         <v>519</v>
       </c>
       <c r="E53">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F53" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>70176</v>
+        <v>528357</v>
       </c>
       <c r="B54" t="s">
         <v>57</v>
@@ -2367,18 +2364,18 @@
         <v>198</v>
       </c>
       <c r="D54">
-        <v>999</v>
+        <v>1159</v>
       </c>
       <c r="E54">
-        <v>949</v>
+        <v>799</v>
       </c>
       <c r="F54" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>632162</v>
+        <v>72873</v>
       </c>
       <c r="B55" t="s">
         <v>58</v>
@@ -2387,15 +2384,18 @@
         <v>199</v>
       </c>
       <c r="D55">
-        <v>759</v>
+        <v>699</v>
+      </c>
+      <c r="E55">
+        <v>459</v>
       </c>
       <c r="F55" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>528358</v>
+        <v>599071</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -2404,18 +2404,18 @@
         <v>200</v>
       </c>
       <c r="D56">
-        <v>1119</v>
+        <v>669</v>
       </c>
       <c r="E56">
-        <v>879</v>
+        <v>369</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>238564</v>
+        <v>249903</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -2424,18 +2424,18 @@
         <v>201</v>
       </c>
       <c r="D57">
-        <v>699</v>
+        <v>1529</v>
       </c>
       <c r="E57">
-        <v>599</v>
+        <v>999</v>
       </c>
       <c r="F57" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>423210</v>
+        <v>33501</v>
       </c>
       <c r="B58" t="s">
         <v>61</v>
@@ -2447,15 +2447,15 @@
         <v>519</v>
       </c>
       <c r="E58">
-        <v>299</v>
+        <v>399</v>
       </c>
       <c r="F58" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>209740</v>
+        <v>238553</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -2464,18 +2464,18 @@
         <v>203</v>
       </c>
       <c r="D59">
-        <v>1049</v>
+        <v>339</v>
       </c>
       <c r="E59">
-        <v>849</v>
+        <v>299</v>
       </c>
       <c r="F59" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>459852</v>
+        <v>70176</v>
       </c>
       <c r="B60" t="s">
         <v>63</v>
@@ -2484,15 +2484,18 @@
         <v>204</v>
       </c>
       <c r="D60">
-        <v>349</v>
+        <v>999</v>
+      </c>
+      <c r="E60">
+        <v>949</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>426450</v>
+        <v>632162</v>
       </c>
       <c r="B61" t="s">
         <v>64</v>
@@ -2501,18 +2504,15 @@
         <v>205</v>
       </c>
       <c r="D61">
-        <v>1090</v>
-      </c>
-      <c r="E61">
-        <v>849</v>
+        <v>759</v>
       </c>
       <c r="F61" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>228236</v>
+        <v>528358</v>
       </c>
       <c r="B62" t="s">
         <v>65</v>
@@ -2521,18 +2521,18 @@
         <v>206</v>
       </c>
       <c r="D62">
-        <v>329</v>
+        <v>1119</v>
       </c>
       <c r="E62">
-        <v>269</v>
+        <v>879</v>
       </c>
       <c r="F62" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>415027</v>
+        <v>423210</v>
       </c>
       <c r="B63" t="s">
         <v>66</v>
@@ -2541,18 +2541,18 @@
         <v>207</v>
       </c>
       <c r="D63">
-        <v>339</v>
+        <v>519</v>
       </c>
       <c r="E63">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F63" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>526503</v>
+        <v>209740</v>
       </c>
       <c r="B64" t="s">
         <v>67</v>
@@ -2561,18 +2561,18 @@
         <v>208</v>
       </c>
       <c r="D64">
-        <v>519</v>
+        <v>1049</v>
       </c>
       <c r="E64">
-        <v>299</v>
+        <v>849</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>248730</v>
+        <v>459852</v>
       </c>
       <c r="B65" t="s">
         <v>68</v>
@@ -2581,18 +2581,15 @@
         <v>209</v>
       </c>
       <c r="D65">
-        <v>729</v>
-      </c>
-      <c r="E65">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="F65" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>224712</v>
+        <v>228236</v>
       </c>
       <c r="B66" t="s">
         <v>69</v>
@@ -2601,18 +2598,18 @@
         <v>210</v>
       </c>
       <c r="D66">
-        <v>379</v>
+        <v>329</v>
       </c>
       <c r="E66">
-        <v>359</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>230298</v>
+        <v>224735</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
@@ -2621,10 +2618,10 @@
         <v>211</v>
       </c>
       <c r="D67">
-        <v>859</v>
+        <v>399</v>
       </c>
       <c r="E67">
-        <v>669</v>
+        <v>389</v>
       </c>
       <c r="F67" t="s">
         <v>288</v>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>228240</v>
+        <v>426450</v>
       </c>
       <c r="B68" t="s">
         <v>71</v>
@@ -2641,18 +2638,18 @@
         <v>212</v>
       </c>
       <c r="D68">
-        <v>789</v>
+        <v>1090</v>
       </c>
       <c r="E68">
-        <v>639</v>
+        <v>849</v>
       </c>
       <c r="F68" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>228234</v>
+        <v>238564</v>
       </c>
       <c r="B69" t="s">
         <v>72</v>
@@ -2661,18 +2658,18 @@
         <v>213</v>
       </c>
       <c r="D69">
-        <v>759</v>
+        <v>699</v>
       </c>
       <c r="E69">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>249901</v>
+        <v>415027</v>
       </c>
       <c r="B70" t="s">
         <v>73</v>
@@ -2681,18 +2678,18 @@
         <v>214</v>
       </c>
       <c r="D70">
-        <v>1529</v>
+        <v>329</v>
       </c>
       <c r="E70">
-        <v>999</v>
+        <v>309</v>
       </c>
       <c r="F70" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>426443</v>
+        <v>526503</v>
       </c>
       <c r="B71" t="s">
         <v>74</v>
@@ -2704,15 +2701,15 @@
         <v>519</v>
       </c>
       <c r="E71">
-        <v>469</v>
+        <v>299</v>
       </c>
       <c r="F71" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>255676</v>
+        <v>248730</v>
       </c>
       <c r="B72" t="s">
         <v>75</v>
@@ -2721,18 +2718,18 @@
         <v>216</v>
       </c>
       <c r="D72">
-        <v>619</v>
+        <v>729</v>
       </c>
       <c r="E72">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="F72" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>70210</v>
+        <v>224712</v>
       </c>
       <c r="B73" t="s">
         <v>76</v>
@@ -2741,18 +2738,18 @@
         <v>217</v>
       </c>
       <c r="D73">
-        <v>329</v>
+        <v>379</v>
       </c>
       <c r="E73">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="F73" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>234805</v>
+        <v>230298</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
@@ -2761,18 +2758,18 @@
         <v>218</v>
       </c>
       <c r="D74">
-        <v>629</v>
+        <v>859</v>
       </c>
       <c r="E74">
-        <v>459</v>
+        <v>669</v>
       </c>
       <c r="F74" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>238884</v>
+        <v>228239</v>
       </c>
       <c r="B75" t="s">
         <v>78</v>
@@ -2781,18 +2778,18 @@
         <v>219</v>
       </c>
       <c r="D75">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="E75">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>508637</v>
+        <v>228240</v>
       </c>
       <c r="B76" t="s">
         <v>79</v>
@@ -2801,18 +2798,18 @@
         <v>220</v>
       </c>
       <c r="D76">
-        <v>1049</v>
+        <v>789</v>
       </c>
       <c r="E76">
-        <v>849</v>
+        <v>639</v>
       </c>
       <c r="F76" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>99542</v>
+        <v>249901</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
@@ -2821,18 +2818,18 @@
         <v>221</v>
       </c>
       <c r="D77">
-        <v>569</v>
+        <v>1469</v>
       </c>
       <c r="E77">
-        <v>279</v>
+        <v>999</v>
       </c>
       <c r="F77" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>232898</v>
+        <v>426443</v>
       </c>
       <c r="B78" t="s">
         <v>81</v>
@@ -2841,18 +2838,18 @@
         <v>222</v>
       </c>
       <c r="D78">
+        <v>519</v>
+      </c>
+      <c r="E78">
         <v>469</v>
       </c>
-      <c r="E78">
-        <v>399</v>
-      </c>
       <c r="F78" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>469154</v>
+        <v>228234</v>
       </c>
       <c r="B79" t="s">
         <v>82</v>
@@ -2861,18 +2858,18 @@
         <v>223</v>
       </c>
       <c r="D79">
-        <v>329</v>
+        <v>759</v>
       </c>
       <c r="E79">
-        <v>259</v>
+        <v>549</v>
       </c>
       <c r="F79" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>224714</v>
+        <v>226337</v>
       </c>
       <c r="B80" t="s">
         <v>83</v>
@@ -2881,18 +2878,18 @@
         <v>224</v>
       </c>
       <c r="D80">
-        <v>399</v>
+        <v>569</v>
       </c>
       <c r="E80">
-        <v>359</v>
+        <v>499</v>
       </c>
       <c r="F80" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>238895</v>
+        <v>255676</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
@@ -2901,18 +2898,18 @@
         <v>225</v>
       </c>
       <c r="D81">
-        <v>262</v>
+        <v>619</v>
       </c>
       <c r="E81">
-        <v>209</v>
+        <v>459</v>
       </c>
       <c r="F81" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>238899</v>
+        <v>70210</v>
       </c>
       <c r="B82" t="s">
         <v>85</v>
@@ -2921,18 +2918,18 @@
         <v>226</v>
       </c>
       <c r="D82">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="E82">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="F82" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>495117</v>
+        <v>234805</v>
       </c>
       <c r="B83" t="s">
         <v>86</v>
@@ -2941,18 +2938,18 @@
         <v>227</v>
       </c>
       <c r="D83">
-        <v>399</v>
+        <v>629</v>
       </c>
       <c r="E83">
-        <v>329</v>
+        <v>459</v>
       </c>
       <c r="F83" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>230296</v>
+        <v>238884</v>
       </c>
       <c r="B84" t="s">
         <v>87</v>
@@ -2961,18 +2958,18 @@
         <v>228</v>
       </c>
       <c r="D84">
-        <v>859</v>
+        <v>262</v>
       </c>
       <c r="E84">
-        <v>669</v>
+        <v>209</v>
       </c>
       <c r="F84" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>228238</v>
+        <v>508637</v>
       </c>
       <c r="B85" t="s">
         <v>88</v>
@@ -2981,18 +2978,18 @@
         <v>229</v>
       </c>
       <c r="D85">
-        <v>329</v>
+        <v>1049</v>
       </c>
       <c r="E85">
-        <v>199</v>
+        <v>849</v>
       </c>
       <c r="F85" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>124058</v>
+        <v>99542</v>
       </c>
       <c r="B86" t="s">
         <v>89</v>
@@ -3001,18 +2998,18 @@
         <v>230</v>
       </c>
       <c r="D86">
-        <v>649</v>
+        <v>569</v>
       </c>
       <c r="E86">
-        <v>609</v>
+        <v>279</v>
       </c>
       <c r="F86" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>256639</v>
+        <v>232898</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
@@ -3021,18 +3018,18 @@
         <v>231</v>
       </c>
       <c r="D87">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E87">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="F87" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>258018</v>
+        <v>469154</v>
       </c>
       <c r="B88" t="s">
         <v>91</v>
@@ -3041,7 +3038,7 @@
         <v>232</v>
       </c>
       <c r="D88">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="E88">
         <v>259</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>232419</v>
+        <v>224714</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
@@ -3061,18 +3058,18 @@
         <v>233</v>
       </c>
       <c r="D89">
-        <v>809</v>
+        <v>399</v>
       </c>
       <c r="E89">
-        <v>499</v>
+        <v>359</v>
       </c>
       <c r="F89" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>147698</v>
+        <v>238895</v>
       </c>
       <c r="B90" t="s">
         <v>93</v>
@@ -3081,15 +3078,18 @@
         <v>234</v>
       </c>
       <c r="D90">
-        <v>182</v>
+        <v>262</v>
+      </c>
+      <c r="E90">
+        <v>209</v>
       </c>
       <c r="F90" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>226348</v>
+        <v>238899</v>
       </c>
       <c r="B91" t="s">
         <v>94</v>
@@ -3098,18 +3098,18 @@
         <v>235</v>
       </c>
       <c r="D91">
-        <v>849</v>
+        <v>262</v>
       </c>
       <c r="E91">
-        <v>479</v>
+        <v>209</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>226347</v>
+        <v>495117</v>
       </c>
       <c r="B92" t="s">
         <v>95</v>
@@ -3118,18 +3118,18 @@
         <v>236</v>
       </c>
       <c r="D92">
-        <v>849</v>
+        <v>399</v>
       </c>
       <c r="E92">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="F92" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>232416</v>
+        <v>230296</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
@@ -3138,18 +3138,18 @@
         <v>237</v>
       </c>
       <c r="D93">
-        <v>629</v>
+        <v>859</v>
       </c>
       <c r="E93">
-        <v>459</v>
+        <v>669</v>
       </c>
       <c r="F93" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>238894</v>
+        <v>228238</v>
       </c>
       <c r="B94" t="s">
         <v>97</v>
@@ -3158,18 +3158,18 @@
         <v>238</v>
       </c>
       <c r="D94">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="E94">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="F94" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>228237</v>
+        <v>124058</v>
       </c>
       <c r="B95" t="s">
         <v>98</v>
@@ -3178,18 +3178,18 @@
         <v>239</v>
       </c>
       <c r="D95">
-        <v>329</v>
+        <v>649</v>
       </c>
       <c r="E95">
-        <v>199</v>
+        <v>609</v>
       </c>
       <c r="F95" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>218638</v>
+        <v>256639</v>
       </c>
       <c r="B96" t="s">
         <v>99</v>
@@ -3198,47 +3198,50 @@
         <v>240</v>
       </c>
       <c r="D96">
-        <v>519</v>
+        <v>449</v>
       </c>
       <c r="E96">
-        <v>399</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>70170</v>
+        <v>258018</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D97">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="E97">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="F97" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>224738</v>
+        <v>230301</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>242</v>
       </c>
       <c r="D98">
-        <v>229</v>
+        <v>409</v>
+      </c>
+      <c r="E98">
+        <v>369</v>
       </c>
       <c r="F98" t="s">
         <v>288</v>
@@ -3246,218 +3249,224 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>228243</v>
+        <v>229730</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>243</v>
       </c>
       <c r="D99">
-        <v>229</v>
+        <v>629</v>
       </c>
       <c r="E99">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="F99" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>228242</v>
+        <v>232419</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D100">
-        <v>409</v>
+        <v>809</v>
       </c>
       <c r="E100">
-        <v>269</v>
+        <v>499</v>
       </c>
       <c r="F100" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>254690</v>
+        <v>147698</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>245</v>
       </c>
       <c r="D101">
-        <v>17.59</v>
+        <v>182</v>
       </c>
       <c r="F101" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>228244</v>
+        <v>226348</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D102">
-        <v>299</v>
+        <v>849</v>
       </c>
       <c r="E102">
-        <v>229</v>
+        <v>479</v>
       </c>
       <c r="F102" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>228241</v>
+        <v>226347</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D103">
-        <v>241</v>
+        <v>849</v>
       </c>
       <c r="E103">
-        <v>189</v>
+        <v>479</v>
       </c>
       <c r="F103" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>619918</v>
+        <v>232416</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>248</v>
       </c>
       <c r="D104">
-        <v>1879</v>
+        <v>629</v>
       </c>
       <c r="E104">
-        <v>1159</v>
+        <v>459</v>
       </c>
       <c r="F104" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>18346</v>
+        <v>238894</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>249</v>
       </c>
       <c r="D105">
-        <v>5094</v>
+        <v>257</v>
+      </c>
+      <c r="E105">
+        <v>209</v>
       </c>
       <c r="F105" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>599055</v>
+        <v>228237</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>250</v>
       </c>
       <c r="D106">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="E106">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>420359</v>
+        <v>218638</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>251</v>
       </c>
       <c r="D107">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="E107">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="F107" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>31887</v>
+        <v>226338</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D108">
-        <v>8991</v>
+        <v>569</v>
       </c>
       <c r="E108">
-        <v>5661</v>
+        <v>499</v>
       </c>
       <c r="F108" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>126369</v>
+        <v>70170</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>253</v>
       </c>
       <c r="D109">
-        <v>4068</v>
+        <v>399</v>
+      </c>
+      <c r="E109">
+        <v>379</v>
       </c>
       <c r="F109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>263145</v>
+        <v>226505</v>
       </c>
       <c r="B110" t="s">
         <v>112</v>
@@ -3466,15 +3475,15 @@
         <v>254</v>
       </c>
       <c r="D110">
-        <v>3594</v>
+        <v>319</v>
       </c>
       <c r="F110" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>29181</v>
+        <v>224738</v>
       </c>
       <c r="B111" t="s">
         <v>113</v>
@@ -3483,18 +3492,15 @@
         <v>255</v>
       </c>
       <c r="D111">
-        <v>14454</v>
-      </c>
-      <c r="E111">
-        <v>10194</v>
+        <v>229</v>
       </c>
       <c r="F111" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>238552</v>
+        <v>228243</v>
       </c>
       <c r="B112" t="s">
         <v>114</v>
@@ -3503,15 +3509,18 @@
         <v>256</v>
       </c>
       <c r="D112">
-        <v>289</v>
+        <v>229</v>
+      </c>
+      <c r="E112">
+        <v>189</v>
       </c>
       <c r="F112" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>463833</v>
+        <v>228242</v>
       </c>
       <c r="B113" t="s">
         <v>115</v>
@@ -3520,18 +3529,18 @@
         <v>257</v>
       </c>
       <c r="D113">
-        <v>729</v>
+        <v>409</v>
       </c>
       <c r="E113">
-        <v>499</v>
+        <v>269</v>
       </c>
       <c r="F113" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>130173</v>
+        <v>254690</v>
       </c>
       <c r="B114" t="s">
         <v>116</v>
@@ -3540,18 +3549,15 @@
         <v>258</v>
       </c>
       <c r="D114">
-        <v>539</v>
-      </c>
-      <c r="E114">
-        <v>209</v>
+        <v>17.59</v>
       </c>
       <c r="F114" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>59006</v>
+        <v>228244</v>
       </c>
       <c r="B115" t="s">
         <v>117</v>
@@ -3560,18 +3566,18 @@
         <v>259</v>
       </c>
       <c r="D115">
-        <v>449</v>
+        <v>299</v>
       </c>
       <c r="E115">
-        <v>309</v>
+        <v>229</v>
       </c>
       <c r="F115" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>459849</v>
+        <v>228241</v>
       </c>
       <c r="B116" t="s">
         <v>118</v>
@@ -3580,18 +3586,18 @@
         <v>260</v>
       </c>
       <c r="D116">
-        <v>669</v>
+        <v>241</v>
       </c>
       <c r="E116">
-        <v>369</v>
+        <v>189</v>
       </c>
       <c r="F116" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>256635</v>
+        <v>619918</v>
       </c>
       <c r="B117" t="s">
         <v>119</v>
@@ -3600,18 +3606,18 @@
         <v>261</v>
       </c>
       <c r="D117">
-        <v>459</v>
+        <v>1879</v>
       </c>
       <c r="E117">
-        <v>279</v>
+        <v>1159</v>
       </c>
       <c r="F117" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>224735</v>
+        <v>18346</v>
       </c>
       <c r="B118" t="s">
         <v>120</v>
@@ -3620,18 +3626,15 @@
         <v>262</v>
       </c>
       <c r="D118">
-        <v>399</v>
-      </c>
-      <c r="E118">
-        <v>389</v>
+        <v>5094</v>
       </c>
       <c r="F118" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>228239</v>
+        <v>599055</v>
       </c>
       <c r="B119" t="s">
         <v>121</v>
@@ -3640,18 +3643,18 @@
         <v>263</v>
       </c>
       <c r="D119">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="E119">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>229730</v>
+        <v>420359</v>
       </c>
       <c r="B120" t="s">
         <v>122</v>
@@ -3660,18 +3663,18 @@
         <v>264</v>
       </c>
       <c r="D120">
-        <v>629</v>
+        <v>349</v>
       </c>
       <c r="E120">
-        <v>449</v>
+        <v>269</v>
       </c>
       <c r="F120" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>230301</v>
+        <v>31887</v>
       </c>
       <c r="B121" t="s">
         <v>123</v>
@@ -3680,18 +3683,18 @@
         <v>265</v>
       </c>
       <c r="D121">
-        <v>399</v>
+        <v>8991</v>
       </c>
       <c r="E121">
-        <v>369</v>
+        <v>5661</v>
       </c>
       <c r="F121" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>226509</v>
+        <v>126369</v>
       </c>
       <c r="B122" t="s">
         <v>124</v>
@@ -3700,18 +3703,15 @@
         <v>266</v>
       </c>
       <c r="D122">
-        <v>389</v>
-      </c>
-      <c r="E122">
-        <v>329</v>
+        <v>4068</v>
       </c>
       <c r="F122" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>253069</v>
+        <v>263145</v>
       </c>
       <c r="B123" t="s">
         <v>125</v>
@@ -3720,18 +3720,15 @@
         <v>267</v>
       </c>
       <c r="D123">
-        <v>879</v>
-      </c>
-      <c r="E123">
-        <v>799</v>
+        <v>3594</v>
       </c>
       <c r="F123" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>253072</v>
+        <v>226523</v>
       </c>
       <c r="B124" t="s">
         <v>126</v>
@@ -3740,18 +3737,18 @@
         <v>268</v>
       </c>
       <c r="D124">
-        <v>879</v>
+        <v>399</v>
       </c>
       <c r="E124">
-        <v>799</v>
+        <v>349</v>
       </c>
       <c r="F124" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>232413</v>
+        <v>29181</v>
       </c>
       <c r="B125" t="s">
         <v>127</v>
@@ -3760,15 +3757,18 @@
         <v>269</v>
       </c>
       <c r="D125">
-        <v>859</v>
+        <v>14454</v>
+      </c>
+      <c r="E125">
+        <v>10194</v>
       </c>
       <c r="F125" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>224736</v>
+        <v>238552</v>
       </c>
       <c r="B126" t="s">
         <v>128</v>
@@ -3777,10 +3777,7 @@
         <v>270</v>
       </c>
       <c r="D126">
-        <v>399</v>
-      </c>
-      <c r="E126">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F126" t="s">
         <v>288</v>
@@ -3788,7 +3785,7 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>238553</v>
+        <v>226509</v>
       </c>
       <c r="B127" t="s">
         <v>129</v>
@@ -3797,18 +3794,18 @@
         <v>271</v>
       </c>
       <c r="D127">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="E127">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="F127" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>232415</v>
+        <v>226524</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
@@ -3817,18 +3814,18 @@
         <v>272</v>
       </c>
       <c r="D128">
-        <v>1139</v>
+        <v>399</v>
       </c>
       <c r="E128">
-        <v>999</v>
+        <v>349</v>
       </c>
       <c r="F128" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>226337</v>
+        <v>253069</v>
       </c>
       <c r="B129" t="s">
         <v>131</v>
@@ -3837,18 +3834,18 @@
         <v>273</v>
       </c>
       <c r="D129">
-        <v>569</v>
+        <v>879</v>
       </c>
       <c r="E129">
-        <v>499</v>
+        <v>799</v>
       </c>
       <c r="F129" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>226338</v>
+        <v>238565</v>
       </c>
       <c r="B130" t="s">
         <v>132</v>
@@ -3857,18 +3854,18 @@
         <v>274</v>
       </c>
       <c r="D130">
-        <v>569</v>
+        <v>699</v>
       </c>
       <c r="E130">
-        <v>499</v>
+        <v>599</v>
       </c>
       <c r="F130" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>226505</v>
+        <v>253072</v>
       </c>
       <c r="B131" t="s">
         <v>133</v>
@@ -3877,15 +3874,18 @@
         <v>275</v>
       </c>
       <c r="D131">
-        <v>319</v>
+        <v>879</v>
+      </c>
+      <c r="E131">
+        <v>799</v>
       </c>
       <c r="F131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>226524</v>
+        <v>254710</v>
       </c>
       <c r="B132" t="s">
         <v>134</v>
@@ -3894,18 +3894,15 @@
         <v>276</v>
       </c>
       <c r="D132">
-        <v>399</v>
-      </c>
-      <c r="E132">
-        <v>349</v>
+        <v>590</v>
       </c>
       <c r="F132" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>19743</v>
+        <v>232413</v>
       </c>
       <c r="B133" t="s">
         <v>135</v>
@@ -3914,18 +3911,15 @@
         <v>277</v>
       </c>
       <c r="D133">
-        <v>2394</v>
-      </c>
-      <c r="E133">
-        <v>1974</v>
+        <v>859</v>
       </c>
       <c r="F133" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>238558</v>
+        <v>232415</v>
       </c>
       <c r="B134" t="s">
         <v>136</v>
@@ -3934,18 +3928,18 @@
         <v>278</v>
       </c>
       <c r="D134">
-        <v>329</v>
+        <v>1139</v>
       </c>
       <c r="E134">
-        <v>309</v>
+        <v>999</v>
       </c>
       <c r="F134" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>551816</v>
+        <v>227078</v>
       </c>
       <c r="B135" t="s">
         <v>137</v>
@@ -3954,18 +3948,15 @@
         <v>279</v>
       </c>
       <c r="D135">
-        <v>3948</v>
-      </c>
-      <c r="E135">
-        <v>2628</v>
+        <v>579</v>
       </c>
       <c r="F135" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>31894</v>
+        <v>238558</v>
       </c>
       <c r="B136" t="s">
         <v>138</v>
@@ -3974,18 +3965,18 @@
         <v>280</v>
       </c>
       <c r="D136">
-        <v>8628</v>
+        <v>329</v>
       </c>
       <c r="E136">
-        <v>5508</v>
+        <v>309</v>
       </c>
       <c r="F136" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>248729</v>
+        <v>224736</v>
       </c>
       <c r="B137" t="s">
         <v>139</v>
@@ -3994,18 +3985,18 @@
         <v>281</v>
       </c>
       <c r="D137">
-        <v>469</v>
+        <v>399</v>
       </c>
       <c r="E137">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="F137" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>238565</v>
+        <v>248729</v>
       </c>
       <c r="B138" t="s">
         <v>140</v>
@@ -4014,18 +4005,18 @@
         <v>282</v>
       </c>
       <c r="D138">
-        <v>699</v>
+        <v>459</v>
       </c>
       <c r="E138">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="F138" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>643753</v>
+        <v>551816</v>
       </c>
       <c r="B139" t="s">
         <v>141</v>
@@ -4034,18 +4025,18 @@
         <v>283</v>
       </c>
       <c r="D139">
-        <v>17628</v>
+        <v>3948</v>
       </c>
       <c r="E139">
-        <v>14388</v>
+        <v>2628</v>
       </c>
       <c r="F139" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>254710</v>
+        <v>643753</v>
       </c>
       <c r="B140" t="s">
         <v>142</v>
@@ -4054,15 +4045,18 @@
         <v>284</v>
       </c>
       <c r="D140">
-        <v>590</v>
+        <v>17628</v>
+      </c>
+      <c r="E140">
+        <v>14388</v>
       </c>
       <c r="F140" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>226523</v>
+        <v>31894</v>
       </c>
       <c r="B141" t="s">
         <v>143</v>
@@ -4071,13 +4065,13 @@
         <v>285</v>
       </c>
       <c r="D141">
-        <v>399</v>
+        <v>8628</v>
       </c>
       <c r="E141">
-        <v>349</v>
+        <v>5508</v>
       </c>
       <c r="F141" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4094,12 +4088,12 @@
         <v>7134</v>
       </c>
       <c r="F142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>227078</v>
+        <v>19743</v>
       </c>
       <c r="B143" t="s">
         <v>145</v>
@@ -4108,10 +4102,13 @@
         <v>287</v>
       </c>
       <c r="D143">
-        <v>579</v>
+        <v>2394</v>
+      </c>
+      <c r="E143">
+        <v>1974</v>
       </c>
       <c r="F143" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
